--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -42,9 +42,6 @@
     <t xml:space="preserve">Слово "Ruby" должно быть гиперссылкой </t>
   </si>
   <si>
-    <t xml:space="preserve">По описанием  библиотеки "Capybara" Должно быть 3 кнопки </t>
-  </si>
-  <si>
     <t xml:space="preserve">1)Просмотреть кнопки под описанием </t>
   </si>
   <si>
@@ -129,14 +126,7 @@
     <t>Шаблон</t>
   </si>
   <si>
-    <t>Гиперссылка на симмволе "Elabs" в футере ведет на сайт "http://www.elabs.se/"</t>
-  </si>
-  <si>
     <t>Гиперссылка на слове "Elabs" в футере ведет на сайт "http://www.elabs.se/"</t>
-  </si>
-  <si>
-    <t>1) В копирайте в футере найти гсимвол Elabs
-2) Нажать на символ</t>
   </si>
   <si>
     <t xml:space="preserve">1) Найти копирайт в футере
@@ -147,6 +137,16 @@
   </si>
   <si>
     <t xml:space="preserve">Копирайт в футере на главной странице </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под описанием  библиотеки "Capybara" Должно быть 3 кнопки </t>
+  </si>
+  <si>
+    <t>Гиперссылка на символе "Elabs" в футере ведет на сайт "http://www.elabs.se/"</t>
+  </si>
+  <si>
+    <t>1) В копирайте в футере найти символ Elabs
+2) Нажать на символ</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
